--- a/Data/MetabolicCalc.xlsx
+++ b/Data/MetabolicCalc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rylietalmadge/Desktop/R/Physiological-Response-to-Temperature-Stress-in-the-Atlantic-Singray/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BDE39-A08A-6E42-A890-8B54A4474A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB7491-2488-3B46-8956-BAA7178ADC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{B7687367-012F-294B-8531-8DD376EE61B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>na</t>
   </si>
@@ -80,9 +80,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Metabolic Rate</t>
-  </si>
-  <si>
     <t>H.Sab_4_exp16_12/11/22</t>
   </si>
   <si>
@@ -119,14 +116,23 @@
     <t>H.Sab_1_exp26_11/15/22</t>
   </si>
   <si>
-    <t>Ray I.D.</t>
+    <t>ray_id</t>
+  </si>
+  <si>
+    <t>metabolic_rate</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,6 +175,22 @@
       <color rgb="FF2E2E2E"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -317,12 +339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,13 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,13 +361,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4745,7 +4767,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4756,170 +4778,170 @@
     <col min="10" max="13" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>15</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="20">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15">
         <v>0.39806153846153852</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="15">
         <v>0.38981539527517489</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>0.8308134782608696</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>0.52492335766423359</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="16">
         <v>0.35876835219603365</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="16">
         <v>0.68305082902962755</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="16">
         <v>0.5456905360944454</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="16">
         <v>0.39671609403254976</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <v>3.5011649814190648</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="11">
         <v>1.6768145534789956</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="11">
         <v>3.5683565363796008</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="11">
         <v>4.4606264643181293</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10">
         <v>26</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>26</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>26</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>26</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>21</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>21</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>21</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>16</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>16</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>16</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>16</v>
       </c>
       <c r="N4" s="1"/>
@@ -4995,7 +5017,7 @@
         <v>1.3144895804591137</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="1"/>
@@ -5067,16 +5089,16 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
